--- a/medicine/Handicap/Adam_Young/Adam_Young.xlsx
+++ b/medicine/Handicap/Adam_Young/Adam_Young.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adam Young (né le 5 juillet 1986, à Ottumwa, dans l'Iowa) est un chanteur et musicien américain. Il a écrit et composé de nombreux projets musicaux mais c'est la chanson Fireflies issu du projet Owl City qui l'a révélé au grand public fin 2009. Fireflies a en effet atteint le numéro un au classement musical dans 26 pays différents. Adam Young a produit six albums et un EP sous le projet Owl City, tous signés chez Universal Republic.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Enfance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Adam Young est né dans l'Iowa mais a grandi à Owatonna dans le Minnesota. Selon lui, c'est le fait de n'avoir jamais été dans une grande ville qui lui a permis de préserver une forme d'innocence qui s'exprime dans sa musique. Il déclare aimer la nature et notamment l'océan qu'il n'aura cependant eu l'occasion de voir de ses propres yeux qu'étant jeune adulte. Durant son enfance, Adam Young a révélé qu'il n'avait pas beaucoup d'amis et qu'il était relativement solitaire. Il a commencé à composer de la musique adolescent à la suite d'une chute de skateboard qui l'a provisoirement empêché de pratiquer cette activité.
 </t>
@@ -568,9 +584,11 @@
           <t>Vie personnelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adam Young avoue lui-même être très timide et introverti comme il l'a déjà écrit sur son blog et révélé dans diverses interviews [1]. Malgré le succès, il habite toujours à Owatonna dans le Minnesota où il compose sa musique chez lui dans une cave aménagée en studio.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adam Young avoue lui-même être très timide et introverti comme il l'a déjà écrit sur son blog et révélé dans diverses interviews . Malgré le succès, il habite toujours à Owatonna dans le Minnesota où il compose sa musique chez lui dans une cave aménagée en studio.
 Durant son enfance, Adam Young a révélé qu'il aimait faire du skateboard, activité qu'il pratique toujours, bien qu'il avoue dévouer la majeure partie de son temps à la création musicale.
 Son livre préféré est Watership Down de Richard Adams. Sa série préférée est Kenan et Kel.
 Au lycée, le film préféré d'Adam Young était Heavyweights ; la chanson Gimme Burgers de son projet Can You Smell What The Rock Is Cooking? est d'ailleurs un hommage au film. Les petits extraits audios du film sont aussi joués à l'arrière-plan de multiples chansons des projets du chanteur : El Uno Clarence, The One Clarence.
@@ -602,7 +620,9 @@
           <t>Projets musicaux</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Adam Young a également entamé de nombreux autres projets musicaux, la majorité étant seulement composés d'un ou deux morceaux courts, servant le plus souvent de tests d'effets musicaux. Certains sont néanmoins plus connus et aboutis tel Sky Sailing ou encore Port Blue. La plupart de ces projets sont uniquement instrumentaux, Adam Young déclarant à ce propos aimer l'idée d'écouter de la musique sans paroles, ce qui permet selon lui de faire sa propre interprétation de la chanson sans que les mots viennent influencer notre perception de la mélodie. Ces nombreux projets musicaux ont occupé ses années d'études secondaires et universitaires. Quelques-uns sont le fruit d'une collaboration avec des amis d'enfance. 
 Owl City
@@ -647,9 +667,43 @@
 Left Lane
 Goodbye Dubai
 Sidebar Crash
-Teal Grassy Fires
-Collaborations[2]
-All About Us, avec He is We
+Teal Grassy Fires</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Adam_Young</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adam_Young</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Projets musicaux</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Collaborations[2]</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>All About Us, avec He is We
 Alligator Sky, avec Shawn Christopher
 Alive, avec Schiller
 Back home, avec Jake Owen
